--- a/Backend/abc.xlsx
+++ b/Backend/abc.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,90 +466,102 @@
       <c r="U1" t="str">
         <v>twoC</v>
       </c>
+      <c r="V1" t="str">
+        <v>fatheremail</v>
+      </c>
+      <c r="W1" t="str">
+        <v>totalday</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1a1b7036-a728-4013-88ba-ef4dfee12d88</v>
+        <v>168700ea-a434-455a-9935-1ec7c03dc3f9</v>
       </c>
       <c r="B2" t="str">
-        <v>Ravi malviya</v>
+        <v>nikita pawar</v>
       </c>
       <c r="C2" t="str">
-        <v>yush@gmail.com</v>
+        <v>nikitapanwar503@gmail.com</v>
       </c>
       <c r="D2" t="str">
-        <v>6265991645</v>
+        <v>7987777821</v>
       </c>
       <c r="E2" t="str">
-        <v>as</v>
+        <v xml:space="preserve">raghuveer </v>
       </c>
       <c r="F2" t="str">
-        <v>asdf</v>
+        <v>nirmala</v>
       </c>
       <c r="G2" t="str">
-        <v>6242415263</v>
+        <v>7987777821</v>
       </c>
       <c r="H2" t="str">
         <v>Female</v>
       </c>
       <c r="I2" t="str">
-        <v>asdfg</v>
+        <v>khategaon</v>
       </c>
       <c r="J2" t="str">
         <v>123</v>
       </c>
       <c r="K2" t="str">
-        <v>dasd</v>
+        <v>Bca</v>
       </c>
       <c r="L2" t="str">
-        <v>2</v>
-      </c>
-      <c r="M2">
         <v>3</v>
       </c>
+      <c r="M2" t="str">
+        <v>85</v>
+      </c>
       <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="O2" t="str">
+        <v>87.63</v>
       </c>
       <c r="P2" t="str">
-        <v>sa</v>
+        <v>clear</v>
       </c>
       <c r="Q2" t="str">
-        <v>sdaf</v>
+        <v>clear</v>
       </c>
       <c r="R2" t="str">
-        <v>asad</v>
+        <v>clear</v>
       </c>
       <c r="S2" t="str">
-        <v>asad</v>
+        <v>clear</v>
       </c>
       <c r="T2" t="str">
-        <v>asdf</v>
+        <v>clear</v>
       </c>
       <c r="U2" t="str">
-        <v>asdfg</v>
+        <v>running</v>
+      </c>
+      <c r="V2" t="str">
+        <v>nikitap.bca2022@ssism.org</v>
+      </c>
+      <c r="W2" t="str">
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>96bf01e8-5589-4d71-bd71-ade8990a1fe5</v>
+        <v>393b0cf9-3ffc-466f-b9c9-367ba460f2b4</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve">haris </v>
+        <v>Haris</v>
       </c>
       <c r="C3" t="str">
-        <v>haris@gmail.com</v>
+        <v>mo.haris7999@gmail.com</v>
       </c>
       <c r="D3" t="str">
-        <v>7626599164</v>
+        <v>8839389993</v>
       </c>
       <c r="E3" t="str">
-        <v>fer</v>
+        <v>shabih</v>
       </c>
       <c r="F3" t="str">
-        <v>rett</v>
+        <v>foziya</v>
       </c>
       <c r="G3" t="str">
         <v>6242415263</v>
@@ -558,48 +570,145 @@
         <v>Male</v>
       </c>
       <c r="I3" t="str">
-        <v>3r4t</v>
-      </c>
-      <c r="J3" t="str">
-        <v>11</v>
+        <v>harda</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
       </c>
       <c r="K3" t="str">
-        <v>dasd</v>
+        <v>BBA+ITEG</v>
       </c>
       <c r="L3" t="str">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
+        <v>3 Year</v>
+      </c>
+      <c r="M3" t="str">
+        <v>14</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="str">
+        <v>66.67</v>
+      </c>
+      <c r="P3" t="str">
+        <v>Clear</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>Clear</v>
+      </c>
+      <c r="R3" t="str">
+        <v>Clear</v>
+      </c>
+      <c r="S3" t="str">
+        <v>Clear</v>
+      </c>
+      <c r="T3" t="str">
+        <v>Clear</v>
+      </c>
+      <c r="U3" t="str">
+        <v>Running</v>
+      </c>
+      <c r="V3" t="str">
+        <v>mo.haris7@gmail.com</v>
+      </c>
+      <c r="W3" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>95e0704b-79cf-4cb3-bfc1-68243ed423f9</v>
+      </c>
+      <c r="B4" t="str">
+        <v>harshita yadav</v>
+      </c>
+      <c r="C4" t="str">
+        <v>harshitay.bba2022@ssism.org</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2365417892</v>
+      </c>
+      <c r="E4" t="str">
+        <v>unnat</v>
+      </c>
+      <c r="F4" t="str">
+        <v xml:space="preserve">meena </v>
+      </c>
+      <c r="G4" t="str">
+        <v>9874563215</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Female</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Harda</v>
+      </c>
+      <c r="J4" t="str">
+        <v>12</v>
+      </c>
+      <c r="K4" t="str">
+        <v>BBA+ITEG</v>
+      </c>
+      <c r="L4" t="str">
+        <v>3 Year</v>
+      </c>
+      <c r="M4" t="str">
+        <v>100</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="P3" t="str">
-        <v>we</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>wew</v>
-      </c>
-      <c r="R3" t="str">
-        <v>ewq</v>
-      </c>
-      <c r="S3" t="str">
-        <v>ewr</v>
-      </c>
-      <c r="T3" t="str">
-        <v>weqwr</v>
-      </c>
-      <c r="U3" t="str">
-        <v>er</v>
+      <c r="O4" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Clear</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>Clear</v>
+      </c>
+      <c r="R4" t="str">
+        <v>Clear</v>
+      </c>
+      <c r="S4" t="str">
+        <v>Clear</v>
+      </c>
+      <c r="T4" t="str">
+        <v>Clear</v>
+      </c>
+      <c r="U4" t="str">
+        <v>Clear</v>
+      </c>
+      <c r="V4" t="str">
+        <v>harshita@gmail.com</v>
+      </c>
+      <c r="W4" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2d49a002-a808-4074-9186-61c5a337f722</v>
+      </c>
+      <c r="B5" t="str">
+        <v>gggg</v>
+      </c>
+      <c r="C5" t="str">
+        <v>b@gmail.com</v>
+      </c>
+      <c r="D5">
+        <v>6265991645</v>
+      </c>
+      <c r="H5" t="str">
+        <v>trans</v>
+      </c>
+      <c r="V5" t="str">
+        <v>fath@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/abc.xlsx
+++ b/Backend/abc.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,299 +416,137 @@
         <v>phone</v>
       </c>
       <c r="E1" t="str">
+        <v>fatheremail</v>
+      </c>
+      <c r="F1" t="str">
         <v>fatherName</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>motherName</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>otherPhone</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>gender</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>address</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>rollno</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>course</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>year</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>totalpresent</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>totalabsent</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
+        <v>totalday</v>
+      </c>
+      <c r="Q1" t="str">
         <v>attenpercentage</v>
       </c>
-      <c r="P1" t="str">
+      <c r="R1" t="str">
         <v>oneA</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="S1" t="str">
         <v>oneB</v>
       </c>
-      <c r="R1" t="str">
+      <c r="T1" t="str">
         <v>oneC</v>
       </c>
-      <c r="S1" t="str">
+      <c r="U1" t="str">
         <v>twoA</v>
       </c>
-      <c r="T1" t="str">
+      <c r="V1" t="str">
         <v>twoB</v>
       </c>
-      <c r="U1" t="str">
+      <c r="W1" t="str">
         <v>twoC</v>
-      </c>
-      <c r="V1" t="str">
-        <v>fatheremail</v>
-      </c>
-      <c r="W1" t="str">
-        <v>totalday</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>168700ea-a434-455a-9935-1ec7c03dc3f9</v>
+        <v>59ace448-355a-4f4b-b92a-289141d625a7</v>
       </c>
       <c r="B2" t="str">
-        <v>nikita pawar</v>
+        <v>Ravi malviya</v>
       </c>
       <c r="C2" t="str">
-        <v>nikitapanwar503@gmail.com</v>
+        <v>ayuh@gmail.com</v>
       </c>
       <c r="D2" t="str">
-        <v>7987777821</v>
+        <v>6265991645</v>
       </c>
       <c r="E2" t="str">
-        <v xml:space="preserve">raghuveer </v>
+        <v>ayush@gmail.com</v>
       </c>
       <c r="F2" t="str">
-        <v>nirmala</v>
+        <v>asdf</v>
       </c>
       <c r="G2" t="str">
-        <v>7987777821</v>
+        <v>asdf</v>
       </c>
       <c r="H2" t="str">
-        <v>Female</v>
+        <v>6242415263</v>
       </c>
       <c r="I2" t="str">
-        <v>khategaon</v>
+        <v>Male</v>
       </c>
       <c r="J2" t="str">
+        <v>asdfg</v>
+      </c>
+      <c r="K2">
         <v>123</v>
       </c>
-      <c r="K2" t="str">
-        <v>Bca</v>
-      </c>
       <c r="L2" t="str">
+        <v>BBA+ITEG</v>
+      </c>
+      <c r="M2" t="str">
+        <v>2 Year</v>
+      </c>
+      <c r="N2" t="str">
+        <v>4</v>
+      </c>
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="M2" t="str">
-        <v>85</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-      <c r="O2" t="str">
-        <v>87.63</v>
-      </c>
       <c r="P2" t="str">
-        <v>clear</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="str">
-        <v>clear</v>
+        <v>66.67</v>
       </c>
       <c r="R2" t="str">
-        <v>clear</v>
+        <v>Running</v>
       </c>
       <c r="S2" t="str">
-        <v>clear</v>
+        <v>Pending</v>
       </c>
       <c r="T2" t="str">
-        <v>clear</v>
+        <v>Pending</v>
       </c>
       <c r="U2" t="str">
-        <v>running</v>
+        <v>Pending</v>
       </c>
       <c r="V2" t="str">
-        <v>nikitap.bca2022@ssism.org</v>
+        <v>Clear</v>
       </c>
       <c r="W2" t="str">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>393b0cf9-3ffc-466f-b9c9-367ba460f2b4</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Haris</v>
-      </c>
-      <c r="C3" t="str">
-        <v>mo.haris7999@gmail.com</v>
-      </c>
-      <c r="D3" t="str">
-        <v>8839389993</v>
-      </c>
-      <c r="E3" t="str">
-        <v>shabih</v>
-      </c>
-      <c r="F3" t="str">
-        <v>foziya</v>
-      </c>
-      <c r="G3" t="str">
-        <v>6242415263</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Male</v>
-      </c>
-      <c r="I3" t="str">
-        <v>harda</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3" t="str">
-        <v>BBA+ITEG</v>
-      </c>
-      <c r="L3" t="str">
-        <v>3 Year</v>
-      </c>
-      <c r="M3" t="str">
-        <v>14</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3" t="str">
-        <v>66.67</v>
-      </c>
-      <c r="P3" t="str">
         <v>Clear</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>Clear</v>
-      </c>
-      <c r="R3" t="str">
-        <v>Clear</v>
-      </c>
-      <c r="S3" t="str">
-        <v>Clear</v>
-      </c>
-      <c r="T3" t="str">
-        <v>Clear</v>
-      </c>
-      <c r="U3" t="str">
-        <v>Running</v>
-      </c>
-      <c r="V3" t="str">
-        <v>mo.haris7@gmail.com</v>
-      </c>
-      <c r="W3" t="str">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>95e0704b-79cf-4cb3-bfc1-68243ed423f9</v>
-      </c>
-      <c r="B4" t="str">
-        <v>harshita yadav</v>
-      </c>
-      <c r="C4" t="str">
-        <v>harshitay.bba2022@ssism.org</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2365417892</v>
-      </c>
-      <c r="E4" t="str">
-        <v>unnat</v>
-      </c>
-      <c r="F4" t="str">
-        <v xml:space="preserve">meena </v>
-      </c>
-      <c r="G4" t="str">
-        <v>9874563215</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Female</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Harda</v>
-      </c>
-      <c r="J4" t="str">
-        <v>12</v>
-      </c>
-      <c r="K4" t="str">
-        <v>BBA+ITEG</v>
-      </c>
-      <c r="L4" t="str">
-        <v>3 Year</v>
-      </c>
-      <c r="M4" t="str">
-        <v>100</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="str">
-        <v>100.00</v>
-      </c>
-      <c r="P4" t="str">
-        <v>Clear</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>Clear</v>
-      </c>
-      <c r="R4" t="str">
-        <v>Clear</v>
-      </c>
-      <c r="S4" t="str">
-        <v>Clear</v>
-      </c>
-      <c r="T4" t="str">
-        <v>Clear</v>
-      </c>
-      <c r="U4" t="str">
-        <v>Clear</v>
-      </c>
-      <c r="V4" t="str">
-        <v>harshita@gmail.com</v>
-      </c>
-      <c r="W4" t="str">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2d49a002-a808-4074-9186-61c5a337f722</v>
-      </c>
-      <c r="B5" t="str">
-        <v>gggg</v>
-      </c>
-      <c r="C5" t="str">
-        <v>b@gmail.com</v>
-      </c>
-      <c r="D5">
-        <v>6265991645</v>
-      </c>
-      <c r="H5" t="str">
-        <v>trans</v>
-      </c>
-      <c r="V5" t="str">
-        <v>fath@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W2"/>
   </ignoredErrors>
 </worksheet>
 </file>